--- a/backend/templates/quality-alert-form.xlsx
+++ b/backend/templates/quality-alert-form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A470F7-CDA4-4B30-A4F8-303B1C2353BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5BDCE0-C729-48B2-882F-E2A71409AE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,24 +1315,366 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1347,348 +1689,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2000,7 +2000,7 @@
   <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:Z44"/>
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,10 +2053,10 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="173" t="s">
+      <c r="Y1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="173"/>
+      <c r="Z1" s="62"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -2083,801 +2083,801 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="174" t="s">
+      <c r="Y2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="174"/>
+      <c r="Z2" s="63"/>
     </row>
     <row r="3" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
     </row>
     <row r="4" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
-      <c r="U4" s="177"/>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="177"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
     </row>
     <row r="5" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="67"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="72"/>
     </row>
     <row r="6" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="180" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="125"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="80"/>
     </row>
     <row r="7" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="171" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="184"/>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="185"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="92"/>
     </row>
     <row r="8" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="144" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="93" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="48"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="160" t="s">
+      <c r="L8" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
       <c r="S8" s="48"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="160" t="s">
+      <c r="U8" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="160"/>
+      <c r="V8" s="96"/>
       <c r="W8" s="54"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="160" t="s">
+      <c r="Y8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="163"/>
+      <c r="Z8" s="98"/>
     </row>
     <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="145"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="49"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
       <c r="S9" s="49"/>
       <c r="T9" s="17"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="49"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="164"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="86"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="50"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
       <c r="S10" s="50"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="50"/>
       <c r="X10" s="44"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="165"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="99"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="45"/>
       <c r="D11" s="46"/>
-      <c r="E11" s="168" t="s">
+      <c r="E11" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="51"/>
       <c r="K11" s="46"/>
-      <c r="L11" s="168" t="s">
+      <c r="L11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="168"/>
-      <c r="N11" s="168"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="168"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="51"/>
       <c r="T11" s="46"/>
-      <c r="U11" s="168" t="s">
+      <c r="U11" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="168"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="55"/>
       <c r="X11" s="47"/>
-      <c r="Y11" s="168" t="s">
+      <c r="Y11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="169"/>
+      <c r="Z11" s="101"/>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="49"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
       <c r="S12" s="49"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
       <c r="W12" s="49"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="164"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="86"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="43"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="50"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
       <c r="S13" s="50"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="50"/>
       <c r="X13" s="44"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="165"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="99"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="145"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="168" t="s">
+      <c r="E14" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="51"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="168" t="s">
+      <c r="L14" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
       <c r="S14" s="51"/>
       <c r="T14" s="46"/>
-      <c r="U14" s="168" t="s">
+      <c r="U14" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="168"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="55"/>
       <c r="X14" s="47"/>
-      <c r="Y14" s="168" t="s">
+      <c r="Y14" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="Z14" s="169"/>
+      <c r="Z14" s="101"/>
     </row>
     <row r="15" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="49"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
       <c r="S15" s="49"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="49"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="164"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="86"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="43"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
       <c r="J16" s="50"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
       <c r="S16" s="50"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
       <c r="W16" s="50"/>
       <c r="X16" s="44"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="165"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="99"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="145"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="21"/>
       <c r="D17" s="41"/>
-      <c r="E17" s="161" t="s">
+      <c r="E17" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="161"/>
-      <c r="Z17" s="164"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="86"/>
     </row>
     <row r="18" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="145"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="164"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="86"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="164"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="86"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="90" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="102" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="160" t="s">
+      <c r="E20" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
       <c r="J20" s="48"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="160" t="s">
+      <c r="L20" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
       <c r="S20" s="48"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="160" t="s">
+      <c r="U20" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="V20" s="160"/>
+      <c r="V20" s="96"/>
       <c r="W20" s="54"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="160" t="s">
+      <c r="Y20" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="Z20" s="163"/>
+      <c r="Z20" s="98"/>
     </row>
     <row r="21" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="159"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
       <c r="J21" s="49"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
       <c r="S21" s="49"/>
       <c r="T21" s="17"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
       <c r="W21" s="49"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="164"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="86"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="159"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="50"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
       <c r="S22" s="50"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
       <c r="W22" s="50"/>
       <c r="X22" s="44"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="165"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="99"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="159"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="161" t="s">
+      <c r="E23" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
       <c r="J23" s="52"/>
       <c r="K23" s="41"/>
-      <c r="L23" s="161" t="s">
+      <c r="L23" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
       <c r="S23" s="52"/>
       <c r="T23" s="41"/>
-      <c r="U23" s="161" t="s">
+      <c r="U23" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="V23" s="161"/>
+      <c r="V23" s="83"/>
       <c r="W23" s="56"/>
       <c r="X23" s="42"/>
-      <c r="Y23" s="161" t="s">
+      <c r="Y23" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Z23" s="164"/>
+      <c r="Z23" s="86"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="159"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
       <c r="J24" s="49"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
       <c r="S24" s="49"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="161"/>
-      <c r="V24" s="161"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
       <c r="W24" s="49"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="164"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="86"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="91"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
       <c r="J25" s="53"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="166"/>
-      <c r="R25" s="166"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
       <c r="S25" s="53"/>
       <c r="T25" s="19"/>
-      <c r="U25" s="166"/>
-      <c r="V25" s="166"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
       <c r="W25" s="53"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="167"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="104"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="153"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="107"/>
       <c r="AF26" s="3"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="154" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="156" t="s">
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="W27" s="157"/>
-      <c r="X27" s="158"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="115"/>
       <c r="Y27" s="57" t="s">
         <v>15</v>
       </c>
@@ -2886,199 +2886,199 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="103"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="121"/>
       <c r="Y28" s="40"/>
       <c r="Z28" s="40"/>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="138" t="s">
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="135"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="140"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="129"/>
     </row>
     <row r="30" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="148" t="s">
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="151"/>
-      <c r="H30" s="152" t="s">
+      <c r="G30" s="137"/>
+      <c r="H30" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152" t="s">
+      <c r="I30" s="135"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="150"/>
-      <c r="T30" s="106" t="s">
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="136"/>
+      <c r="T30" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="94"/>
+      <c r="U30" s="140"/>
+      <c r="V30" s="140"/>
+      <c r="W30" s="140"/>
+      <c r="X30" s="141"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="128">
+      <c r="A31" s="68"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="78">
         <f>C31*F31*H31</f>
         <v>0</v>
       </c>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="110"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="142"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="143"/>
+      <c r="W31" s="143"/>
+      <c r="X31" s="144"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="148"/>
     </row>
     <row r="32" spans="1:32" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="110"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="153"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="143"/>
+      <c r="W32" s="143"/>
+      <c r="X32" s="144"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="148"/>
     </row>
     <row r="33" spans="1:31" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="117"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="163"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="149"/>
     </row>
     <row r="34" spans="1:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="141"/>
-      <c r="B34" s="104" t="s">
+      <c r="A34" s="130"/>
+      <c r="B34" s="165" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="24"/>
@@ -3098,17 +3098,17 @@
       <c r="Q34" s="26"/>
       <c r="R34" s="26"/>
       <c r="S34" s="27"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="94"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="112"/>
     </row>
     <row r="35" spans="1:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="141"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="166"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -3126,17 +3126,17 @@
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
       <c r="S35" s="29"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="186"/>
-      <c r="V35" s="186"/>
-      <c r="W35" s="186"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="109"/>
-      <c r="Z35" s="110"/>
+      <c r="T35" s="147"/>
+      <c r="U35" s="167"/>
+      <c r="V35" s="167"/>
+      <c r="W35" s="167"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="147"/>
+      <c r="Z35" s="148"/>
     </row>
     <row r="36" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="141"/>
-      <c r="B36" s="105"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="166"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -3145,59 +3145,59 @@
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="31"/>
-      <c r="K36" s="83" t="s">
+      <c r="K36" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="109"/>
-      <c r="U36" s="186"/>
-      <c r="V36" s="186"/>
-      <c r="W36" s="186"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="109"/>
-      <c r="Z36" s="110"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="143"/>
+      <c r="Q36" s="143"/>
+      <c r="R36" s="143"/>
+      <c r="S36" s="144"/>
+      <c r="T36" s="147"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="167"/>
+      <c r="W36" s="167"/>
+      <c r="X36" s="148"/>
+      <c r="Y36" s="147"/>
+      <c r="Z36" s="148"/>
     </row>
     <row r="37" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="141"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="113" t="s">
+      <c r="A37" s="130"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
       <c r="I37" s="32"/>
       <c r="J37" s="31"/>
       <c r="K37" s="33"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="115"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="172"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="115"/>
+      <c r="P37" s="171"/>
+      <c r="Q37" s="172"/>
       <c r="R37" s="31"/>
       <c r="S37" s="34"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="186"/>
-      <c r="V37" s="186"/>
-      <c r="W37" s="186"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="109"/>
-      <c r="Z37" s="110"/>
+      <c r="T37" s="147"/>
+      <c r="U37" s="167"/>
+      <c r="V37" s="167"/>
+      <c r="W37" s="167"/>
+      <c r="X37" s="148"/>
+      <c r="Y37" s="147"/>
+      <c r="Z37" s="148"/>
       <c r="AA37" s="4"/>
     </row>
     <row r="38" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="142"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -3206,31 +3206,31 @@
       <c r="H38" s="22"/>
       <c r="I38" s="35"/>
       <c r="J38" s="31"/>
-      <c r="K38" s="83" t="s">
+      <c r="K38" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79" t="s">
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
       <c r="S38" s="34"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="186"/>
-      <c r="V38" s="186"/>
-      <c r="W38" s="186"/>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="110"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="167"/>
+      <c r="V38" s="167"/>
+      <c r="W38" s="167"/>
+      <c r="X38" s="148"/>
+      <c r="Y38" s="147"/>
+      <c r="Z38" s="148"/>
       <c r="AA38" s="4"/>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="142"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -3239,31 +3239,31 @@
       <c r="H39" s="22"/>
       <c r="I39" s="35"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="79" t="s">
+      <c r="K39" s="173"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
+      <c r="S39" s="175"/>
+      <c r="T39" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="83" t="s">
+      <c r="U39" s="143"/>
+      <c r="V39" s="143"/>
+      <c r="W39" s="143"/>
+      <c r="X39" s="144"/>
+      <c r="Y39" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="Z39" s="80"/>
+      <c r="Z39" s="144"/>
       <c r="AA39" s="4"/>
     </row>
     <row r="40" spans="1:31" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="143"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="169"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
@@ -3272,85 +3272,85 @@
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="37"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="81"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="81"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="84"/>
-      <c r="Z40" s="82"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="178"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="146"/>
+      <c r="Y40" s="145"/>
+      <c r="Z40" s="146"/>
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="1:31" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="64"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="179"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
+      <c r="S41" s="179"/>
+      <c r="T41" s="179"/>
+      <c r="U41" s="179"/>
+      <c r="V41" s="179"/>
+      <c r="W41" s="179"/>
+      <c r="X41" s="179"/>
+      <c r="Y41" s="179"/>
+      <c r="Z41" s="180"/>
     </row>
     <row r="42" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
-      <c r="B42" s="90" t="s">
+      <c r="A42" s="68"/>
+      <c r="B42" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="95" t="s">
+      <c r="C42" s="110"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="112"/>
+      <c r="V42" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="W42" s="96"/>
-      <c r="X42" s="97"/>
+      <c r="W42" s="153"/>
+      <c r="X42" s="154"/>
       <c r="Y42" s="59" t="s">
         <v>15</v>
       </c>
@@ -3359,133 +3359,133 @@
       </c>
     </row>
     <row r="43" spans="1:31" ht="143.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="100"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="102"/>
-      <c r="X43" s="103"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="118"/>
+      <c r="V43" s="119"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="121"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
     </row>
     <row r="44" spans="1:31" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63"/>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="64"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="179"/>
+      <c r="M44" s="179"/>
+      <c r="N44" s="179"/>
+      <c r="O44" s="179"/>
+      <c r="P44" s="179"/>
+      <c r="Q44" s="179"/>
+      <c r="R44" s="179"/>
+      <c r="S44" s="179"/>
+      <c r="T44" s="179"/>
+      <c r="U44" s="179"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
+      <c r="X44" s="179"/>
+      <c r="Y44" s="179"/>
+      <c r="Z44" s="180"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="67"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="72"/>
     </row>
     <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="69"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="69"/>
-      <c r="X46" s="69"/>
-      <c r="Y46" s="69"/>
-      <c r="Z46" s="70"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="183"/>
+      <c r="N46" s="183"/>
+      <c r="O46" s="183"/>
+      <c r="P46" s="183"/>
+      <c r="Q46" s="183"/>
+      <c r="R46" s="183"/>
+      <c r="S46" s="183"/>
+      <c r="T46" s="183"/>
+      <c r="U46" s="183"/>
+      <c r="V46" s="183"/>
+      <c r="W46" s="183"/>
+      <c r="X46" s="183"/>
+      <c r="Y46" s="183"/>
+      <c r="Z46" s="184"/>
     </row>
     <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -3512,11 +3512,11 @@
       <c r="AE47" s="5"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
+      <c r="B48" s="186"/>
+      <c r="C48" s="186"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3620,6 +3620,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A45:Z45"/>
+    <mergeCell ref="A46:Z46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="C41:Z41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="C43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="T34:X38"/>
+    <mergeCell ref="Y34:Z38"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="K39:S40"/>
+    <mergeCell ref="T39:X40"/>
+    <mergeCell ref="Y39:Z40"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="T30:X33"/>
+    <mergeCell ref="Y30:Z33"/>
+    <mergeCell ref="C31:E33"/>
+    <mergeCell ref="F31:G33"/>
+    <mergeCell ref="H31:J33"/>
+    <mergeCell ref="K31:S33"/>
+    <mergeCell ref="C26:Z26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="C28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="E14:I16"/>
+    <mergeCell ref="L14:R16"/>
+    <mergeCell ref="U14:V16"/>
+    <mergeCell ref="Y14:Z16"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="E20:I22"/>
+    <mergeCell ref="L20:R22"/>
+    <mergeCell ref="U20:V22"/>
+    <mergeCell ref="Y20:Z22"/>
+    <mergeCell ref="E23:I25"/>
+    <mergeCell ref="L23:R25"/>
+    <mergeCell ref="U23:V25"/>
+    <mergeCell ref="Y23:Z25"/>
+    <mergeCell ref="L8:R10"/>
+    <mergeCell ref="U8:V10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="E11:I13"/>
+    <mergeCell ref="L11:R13"/>
+    <mergeCell ref="U11:V13"/>
+    <mergeCell ref="Y11:Z13"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="A3:Z3"/>
@@ -3636,73 +3703,6 @@
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="B8:B19"/>
     <mergeCell ref="E8:I10"/>
-    <mergeCell ref="L8:R10"/>
-    <mergeCell ref="U8:V10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="E11:I13"/>
-    <mergeCell ref="L11:R13"/>
-    <mergeCell ref="U11:V13"/>
-    <mergeCell ref="Y11:Z13"/>
-    <mergeCell ref="E14:I16"/>
-    <mergeCell ref="L14:R16"/>
-    <mergeCell ref="U14:V16"/>
-    <mergeCell ref="Y14:Z16"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="E20:I22"/>
-    <mergeCell ref="L20:R22"/>
-    <mergeCell ref="U20:V22"/>
-    <mergeCell ref="Y20:Z22"/>
-    <mergeCell ref="E23:I25"/>
-    <mergeCell ref="L23:R25"/>
-    <mergeCell ref="U23:V25"/>
-    <mergeCell ref="Y23:Z25"/>
-    <mergeCell ref="C26:Z26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="C28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:Z29"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="T30:X33"/>
-    <mergeCell ref="Y30:Z33"/>
-    <mergeCell ref="C31:E33"/>
-    <mergeCell ref="F31:G33"/>
-    <mergeCell ref="H31:J33"/>
-    <mergeCell ref="K31:S33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="T34:X38"/>
-    <mergeCell ref="Y34:Z38"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="K39:S40"/>
-    <mergeCell ref="T39:X40"/>
-    <mergeCell ref="Y39:Z40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="C41:Z41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="C43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="A45:Z45"/>
-    <mergeCell ref="A46:Z46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
